--- a/cypress/fixtures/expectedResults/Auto/PA IL 12 08 22.xlsx
+++ b/cypress/fixtures/expectedResults/Auto/PA IL 12 08 22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/MyOwnProject/api-test-cypress/cypress/fixtures/expectedResults/Auto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE90D14C-D7CD-5C4A-B226-73F1FC65267D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D14DD59-5618-B44D-8433-1386235C06F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="15840" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
+    <workbookView xWindow="1000" yWindow="-28300" windowWidth="33220" windowHeight="20040" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms and Bulletins" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sources" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Forms and Bulletins'!$A$9:$E$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Forms and Bulletins'!$B$9:$F$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,6 +43,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={FFEAB646-8536-7B40-8242-33D2F5371C36}</author>
+  </authors>
+  <commentList>
+    <comment ref="A74" authorId="0" shapeId="0" xr:uid="{FFEAB646-8536-7B40-8242-33D2F5371C36}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Duplicate as there appears to be two names for the same document</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={DF2DFE62-2104-AF4E-B8CE-C435B3D45F0D}</author>
   </authors>
   <commentList>
@@ -59,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="187">
   <si>
     <t>CRITERIA</t>
   </si>
@@ -679,6 +697,27 @@
   <si>
     <t>PA</t>
   </si>
+  <si>
+    <t>Mateial type</t>
+  </si>
+  <si>
+    <t>PFM</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>FEL</t>
+  </si>
+  <si>
+    <t>BUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IL PA DOWNLOAD REV 07 22</t>
+  </si>
+  <si>
+    <t>IL PAU FORMS &amp; ENDORSEMENTS LIST 09 09 22</t>
+  </si>
 </sst>
 </file>
 
@@ -687,7 +726,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,6 +833,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1180,6 +1225,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A74" dT="2022-12-09T20:00:09.24" personId="{B1FF1FAD-93A4-9044-85A3-47AD12E001F7}" id="{FFEAB646-8536-7B40-8242-33D2F5371C36}">
+    <text>Duplicate as there appears to be two names for the same document</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A13" dT="2022-12-09T20:00:09.24" personId="{B1FF1FAD-93A4-9044-85A3-47AD12E001F7}" id="{DF2DFE62-2104-AF4E-B8CE-C435B3D45F0D}">
     <text>Duplicate as there appears to be two names for the same document</text>
   </threadedComment>
@@ -1187,27 +1240,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6089C9B-6C1F-41AA-9E90-19600F8F153D}">
-  <dimension ref="A1:E69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6089C9B-6C1F-41AA-9E90-19600F8F153D}">
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="93.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="93.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1215,7 +1269,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1223,7 +1277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1231,877 +1285,1156 @@
         <v>44903</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="79" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="79" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>177</v>
       </c>
-      <c r="D12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
       <c r="D13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
       <c r="D14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
       <c r="D15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
       <c r="D16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
       <c r="D17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
       <c r="D18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
       <c r="D19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
       <c r="D20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
       <c r="D21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
       <c r="D22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
       <c r="D23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
       <c r="D24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>62</v>
       </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
       <c r="D25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
       <c r="D26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
       <c r="D27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>65</v>
       </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
       <c r="D28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>66</v>
       </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
       <c r="D29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" t="s">
         <v>52</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
       <c r="D30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" t="s">
         <v>53</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>68</v>
       </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
       <c r="D31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" t="s">
         <v>54</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>69</v>
       </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
       <c r="D32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" t="s">
         <v>55</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="C33" t="s">
-        <v>45</v>
-      </c>
       <c r="D33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" t="s">
         <v>56</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>71</v>
       </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
       <c r="D34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" t="s">
         <v>57</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>72</v>
       </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
       <c r="D35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" t="s">
         <v>58</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>73</v>
       </c>
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
       <c r="D36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" t="s">
         <v>59</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>74</v>
       </c>
-      <c r="C37" t="s">
-        <v>45</v>
-      </c>
       <c r="D37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" t="s">
         <v>60</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>75</v>
       </c>
-      <c r="C38" t="s">
-        <v>45</v>
-      </c>
       <c r="D38" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" t="s">
         <v>61</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>76</v>
       </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
       <c r="D39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" t="s">
         <v>147</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>91</v>
       </c>
-      <c r="C40" t="s">
-        <v>45</v>
-      </c>
       <c r="D40" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" t="s">
         <v>77</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>92</v>
       </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
       <c r="D41" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" t="s">
         <v>78</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>93</v>
       </c>
-      <c r="C42" t="s">
-        <v>45</v>
-      </c>
       <c r="D42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" t="s">
         <v>79</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>94</v>
       </c>
-      <c r="C43" t="s">
-        <v>45</v>
-      </c>
       <c r="D43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" t="s">
         <v>80</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>95</v>
       </c>
-      <c r="C44" t="s">
-        <v>45</v>
-      </c>
       <c r="D44" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" t="s">
         <v>81</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>96</v>
       </c>
-      <c r="C45" t="s">
-        <v>45</v>
-      </c>
       <c r="D45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" t="s">
         <v>82</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>97</v>
       </c>
-      <c r="C46" t="s">
-        <v>45</v>
-      </c>
       <c r="D46" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" t="s">
         <v>83</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>98</v>
       </c>
-      <c r="C47" t="s">
-        <v>45</v>
-      </c>
       <c r="D47" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" t="s">
         <v>84</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>99</v>
       </c>
-      <c r="C48" t="s">
-        <v>45</v>
-      </c>
       <c r="D48" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" t="s">
         <v>85</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>100</v>
       </c>
-      <c r="C49" t="s">
-        <v>45</v>
-      </c>
       <c r="D49" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" t="s">
         <v>86</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>101</v>
       </c>
-      <c r="C50" t="s">
-        <v>45</v>
-      </c>
       <c r="D50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" t="s">
         <v>87</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>102</v>
       </c>
-      <c r="C51" t="s">
-        <v>45</v>
-      </c>
       <c r="D51" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" t="s">
         <v>88</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>103</v>
       </c>
-      <c r="C52" t="s">
-        <v>45</v>
-      </c>
       <c r="D52" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" t="s">
         <v>89</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>104</v>
       </c>
-      <c r="C53" t="s">
-        <v>45</v>
-      </c>
       <c r="D53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" t="s">
         <v>90</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>105</v>
       </c>
-      <c r="C54" t="s">
-        <v>45</v>
-      </c>
       <c r="D54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" t="s">
         <v>106</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>120</v>
       </c>
-      <c r="C55" t="s">
-        <v>45</v>
-      </c>
       <c r="D55" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" t="s">
         <v>107</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>121</v>
       </c>
-      <c r="C56" t="s">
-        <v>45</v>
-      </c>
       <c r="D56" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" t="s">
         <v>108</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>122</v>
       </c>
-      <c r="C57" t="s">
-        <v>45</v>
-      </c>
       <c r="D57" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" t="s">
         <v>109</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>123</v>
       </c>
-      <c r="C58" t="s">
-        <v>45</v>
-      </c>
       <c r="D58" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E58" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" t="s">
         <v>110</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>124</v>
       </c>
-      <c r="C59" t="s">
-        <v>45</v>
-      </c>
       <c r="D59" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" t="s">
         <v>111</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>125</v>
       </c>
-      <c r="C60" t="s">
-        <v>45</v>
-      </c>
       <c r="D60" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E60" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" t="s">
         <v>112</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>126</v>
       </c>
-      <c r="C61" t="s">
-        <v>45</v>
-      </c>
       <c r="D61" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" t="s">
         <v>113</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>127</v>
       </c>
-      <c r="C62" t="s">
-        <v>45</v>
-      </c>
       <c r="D62" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" t="s">
         <v>114</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>128</v>
       </c>
-      <c r="C63" t="s">
-        <v>45</v>
-      </c>
       <c r="D63" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" t="s">
         <v>115</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>129</v>
       </c>
-      <c r="C64" t="s">
-        <v>45</v>
-      </c>
       <c r="D64" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E64" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" t="s">
         <v>116</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>130</v>
       </c>
-      <c r="C65" t="s">
-        <v>45</v>
-      </c>
       <c r="D65" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" t="s">
         <v>117</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>131</v>
       </c>
-      <c r="C66" t="s">
-        <v>45</v>
-      </c>
       <c r="D66" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" t="s">
         <v>118</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>132</v>
       </c>
-      <c r="C67" t="s">
-        <v>45</v>
-      </c>
       <c r="D67" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E67" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" t="s">
         <v>119</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>133</v>
       </c>
-      <c r="C68" t="s">
-        <v>45</v>
-      </c>
       <c r="D68" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>182</v>
+      </c>
       <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C69" t="s">
+      <c r="F71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>146</v>
       </c>
+      <c r="F72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B73" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B76" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F76" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:E69" xr:uid="{A6089C9B-6C1F-41AA-9E90-19600F8F153D}"/>
+  <autoFilter ref="B9:F69" xr:uid="{A6089C9B-6C1F-41AA-9E90-19600F8F153D}"/>
+  <hyperlinks>
+    <hyperlink ref="C76" r:id="rId1" xr:uid="{8C096638-452E-1D47-A672-A0686E04E8D5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2110,7 +2443,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/cypress/fixtures/expectedResults/Auto/PA IL 12 08 22.xlsx
+++ b/cypress/fixtures/expectedResults/Auto/PA IL 12 08 22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/MyOwnProject/api-test-cypress/cypress/fixtures/expectedResults/Auto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D14DD59-5618-B44D-8433-1386235C06F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C702ED16-AA57-E742-B81E-C2D8F367F066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="-28300" windowWidth="33220" windowHeight="20040" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="187">
   <si>
     <t>CRITERIA</t>
   </si>
@@ -726,7 +726,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,12 +833,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1244,7 +1238,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2414,9 +2408,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="A76" s="2"/>
       <c r="B76" t="s">
         <v>185</v>
       </c>

--- a/cypress/fixtures/expectedResults/Auto/PA IL 12 08 22.xlsx
+++ b/cypress/fixtures/expectedResults/Auto/PA IL 12 08 22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/MyOwnProject/api-test-cypress/cypress/fixtures/expectedResults/Auto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C702ED16-AA57-E742-B81E-C2D8F367F066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E29E578-7B9D-CC49-867D-D353A5FBBAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="-28300" windowWidth="33220" windowHeight="20040" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="186">
   <si>
     <t>CRITERIA</t>
   </si>
@@ -708,9 +708,6 @@
   </si>
   <si>
     <t>FEL</t>
-  </si>
-  <si>
-    <t>BUL</t>
   </si>
   <si>
     <t xml:space="preserve">  IL PA DOWNLOAD REV 07 22</t>
@@ -1237,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6089C9B-6C1F-41AA-9E90-19600F8F153D}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2355,9 +2352,6 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="B72" t="s">
         <v>163</v>
       </c>
@@ -2369,9 +2363,6 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="B73" t="s">
         <v>164</v>
       </c>
@@ -2401,7 +2392,7 @@
         <v>183</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C75" t="s">
         <v>149</v>
@@ -2410,7 +2401,7 @@
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>176</v>

--- a/cypress/fixtures/expectedResults/Auto/PA IL 12 08 22.xlsx
+++ b/cypress/fixtures/expectedResults/Auto/PA IL 12 08 22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/MyOwnProject/api-test-cypress/cypress/fixtures/expectedResults/Auto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E29E578-7B9D-CC49-867D-D353A5FBBAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13D78EB-2089-1E40-A255-8AD95E3842C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="-28300" windowWidth="33220" windowHeight="20040" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
+    <workbookView xWindow="-3100" yWindow="-28300" windowWidth="31100" windowHeight="21400" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms and Bulletins" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sources" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Forms and Bulletins'!$B$9:$F$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Forms and Bulletins'!$C$9:$G$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="191">
   <si>
     <t>CRITERIA</t>
   </si>
@@ -701,19 +701,34 @@
     <t>Mateial type</t>
   </si>
   <si>
-    <t>PFM</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>FEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  IL PA DOWNLOAD REV 07 22</t>
-  </si>
-  <si>
     <t>IL PAU FORMS &amp; ENDORSEMENTS LIST 09 09 22</t>
+  </si>
+  <si>
+    <t>Publication type</t>
+  </si>
+  <si>
+    <t>Forms</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Manual Materials</t>
+  </si>
+  <si>
+    <t>IL PA DOWNLOAD REV 07 22</t>
+  </si>
+  <si>
+    <t>Forms and Endorsements Lists</t>
+  </si>
+  <si>
+    <t>Forms and Endorsements List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Pages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi &amp; State-Specific Manuals </t>
   </si>
 </sst>
 </file>
@@ -723,7 +738,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,6 +846,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -862,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -876,9 +911,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -895,6 +927,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1232,1188 +1282,1384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6089C9B-6C1F-41AA-9E90-19600F8F153D}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="93.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="93.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="21">
         <v>44903</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="79" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="20"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" ht="121" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" t="s">
+        <v>133</v>
+      </c>
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>163</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" t="s">
         <v>181</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>181</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>181</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>181</v>
-      </c>
-      <c r="B38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>181</v>
-      </c>
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>181</v>
-      </c>
-      <c r="B41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>181</v>
-      </c>
-      <c r="B43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>181</v>
-      </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>181</v>
-      </c>
-      <c r="B49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>181</v>
-      </c>
-      <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>181</v>
-      </c>
-      <c r="B53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>181</v>
-      </c>
-      <c r="B55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>181</v>
-      </c>
-      <c r="B56" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>181</v>
-      </c>
-      <c r="B57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>181</v>
-      </c>
-      <c r="B58" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>181</v>
-      </c>
-      <c r="B59" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" t="s">
-        <v>124</v>
-      </c>
-      <c r="D59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>181</v>
-      </c>
-      <c r="B60" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>181</v>
-      </c>
-      <c r="B61" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>181</v>
-      </c>
-      <c r="B62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>181</v>
-      </c>
-      <c r="B63" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" t="s">
-        <v>45</v>
-      </c>
-      <c r="E63" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>181</v>
-      </c>
-      <c r="B64" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" t="s">
-        <v>129</v>
-      </c>
-      <c r="D64" t="s">
-        <v>45</v>
-      </c>
-      <c r="E64" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>181</v>
-      </c>
-      <c r="B65" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E65" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>181</v>
-      </c>
-      <c r="B66" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" t="s">
-        <v>45</v>
-      </c>
-      <c r="E66" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>181</v>
-      </c>
-      <c r="B67" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" t="s">
-        <v>132</v>
-      </c>
-      <c r="D67" t="s">
-        <v>45</v>
-      </c>
-      <c r="E67" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>181</v>
-      </c>
-      <c r="B68" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" t="s">
-        <v>133</v>
-      </c>
-      <c r="D68" t="s">
-        <v>45</v>
-      </c>
-      <c r="E68" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>182</v>
-      </c>
-      <c r="B69" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>182</v>
-      </c>
-      <c r="B70" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>182</v>
-      </c>
-      <c r="B71" t="s">
-        <v>137</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>163</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B74" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F74" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B75" t="s">
-        <v>185</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76" s="19" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B9:F69" xr:uid="{A6089C9B-6C1F-41AA-9E90-19600F8F153D}"/>
+  <autoFilter ref="C9:G69" xr:uid="{A6089C9B-6C1F-41AA-9E90-19600F8F153D}"/>
   <hyperlinks>
-    <hyperlink ref="C76" r:id="rId1" xr:uid="{8C096638-452E-1D47-A672-A0686E04E8D5}"/>
+    <hyperlink ref="D76" r:id="rId1" xr:uid="{8C096638-452E-1D47-A672-A0686E04E8D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2426,7 +2672,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2489,19 +2735,19 @@
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2534,7 +2780,7 @@
       <c r="B10" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>146</v>
       </c>
       <c r="F10" t="s">
@@ -2548,7 +2794,7 @@
       <c r="B11" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>146</v>
       </c>
       <c r="F11" t="s">
@@ -2562,7 +2808,7 @@
       <c r="B12" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>146</v>
       </c>
       <c r="F12" t="s">
@@ -2576,7 +2822,7 @@
       <c r="B13" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="F13" t="s">
@@ -2601,7 +2847,7 @@
       <c r="B15" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>176</v>
       </c>
       <c r="F15" t="s">
@@ -2631,132 +2877,132 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>146</v>
       </c>
     </row>
